--- a/apps/load_data/2024/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2024/03/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2024\HHY0324\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\HHY0324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5871E55C-47DE-4545-BCC8-7AA9355BCC59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9805A00-27E4-4443-AABC-0ED5BD3C29E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$289</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$289</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12347" uniqueCount="3417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12328" uniqueCount="3414">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6565,9 +6566,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7711,9 +7709,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -7961,9 +7956,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10279,7 +10271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11119,10 +11111,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD233" sqref="AC165:AD233"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -41639,12 +41633,7 @@
       <c r="AB165" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC165" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD165" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC165" s="3"/>
       <c r="AF165" s="1" t="s">
         <v>107</v>
       </c>
@@ -41697,16 +41686,16 @@
         <v>24</v>
       </c>
       <c r="BD165" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BG165" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH165" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="BI165" s="1" t="s">
         <v>2182</v>
-      </c>
-      <c r="BI165" s="1" t="s">
-        <v>2183</v>
       </c>
       <c r="BN165" s="1" t="s">
         <v>117</v>
@@ -41721,13 +41710,13 @@
         <v>163</v>
       </c>
       <c r="BS165" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BT165" s="3">
         <v>36225</v>
       </c>
       <c r="BU165" s="1" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="BV165" s="1" t="s">
         <v>121</v>
@@ -41748,19 +41737,19 @@
         <v>102</v>
       </c>
       <c r="CD165" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="CE165" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="CE165" s="1" t="s">
+      <c r="CF165" s="1" t="s">
         <v>2187</v>
       </c>
-      <c r="CF165" s="1" t="s">
+      <c r="CH165" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="CH165" s="1" t="s">
+      <c r="CI165" s="1" t="s">
         <v>2189</v>
-      </c>
-      <c r="CI165" s="1" t="s">
-        <v>2190</v>
       </c>
       <c r="CJ165" s="1" t="s">
         <v>129</v>
@@ -41792,16 +41781,16 @@
         <v>95</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K166" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="L166" s="1" t="s">
         <v>2192</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>2193</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>101</v>
@@ -41824,12 +41813,7 @@
       <c r="AB166" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="AC166" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD166" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC166" s="3"/>
       <c r="AF166" s="1" t="s">
         <v>107</v>
       </c>
@@ -41876,7 +41860,7 @@
         <v>102</v>
       </c>
       <c r="AZ166" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BB166" s="1">
         <v>5</v>
@@ -41885,7 +41869,7 @@
         <v>22</v>
       </c>
       <c r="BD166" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BN166" s="1" t="s">
         <v>117</v>
@@ -41912,7 +41896,7 @@
         <v>111</v>
       </c>
       <c r="CA166" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="CB166" s="1" t="s">
         <v>123</v>
@@ -41921,10 +41905,10 @@
         <v>102</v>
       </c>
       <c r="CD166" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="CH166" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="CI166" s="1" t="s">
         <v>129</v>
@@ -41965,13 +41949,13 @@
         <v>97</v>
       </c>
       <c r="K167" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L167" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="L167" s="1" t="s">
+      <c r="N167" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>101</v>
@@ -42000,12 +41984,7 @@
       <c r="AA167" s="1">
         <v>0</v>
       </c>
-      <c r="AC167" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD167" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC167" s="3"/>
       <c r="AF167" s="1" t="s">
         <v>107</v>
       </c>
@@ -42055,7 +42034,7 @@
         <v>102</v>
       </c>
       <c r="AZ167" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BB167" s="1">
         <v>3</v>
@@ -42064,13 +42043,13 @@
         <v>24</v>
       </c>
       <c r="BD167" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="BG167" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH167" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="BN167" s="1" t="s">
         <v>117</v>
@@ -42079,7 +42058,7 @@
         <v>106</v>
       </c>
       <c r="BU167" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BV167" s="1" t="s">
         <v>121</v>
@@ -42097,16 +42076,16 @@
         <v>102</v>
       </c>
       <c r="CD167" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="CE167" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="CF167" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="CH167" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="CH167" s="1" t="s">
-        <v>2207</v>
       </c>
       <c r="CI167" s="1" t="s">
         <v>129</v>
@@ -42147,13 +42126,13 @@
         <v>97</v>
       </c>
       <c r="K168" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L168" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="L168" s="1" t="s">
+      <c r="N168" s="1" t="s">
         <v>2209</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>2210</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>101</v>
@@ -42185,12 +42164,7 @@
       <c r="AB168" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC168" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD168" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC168" s="3"/>
       <c r="AF168" s="1" t="s">
         <v>107</v>
       </c>
@@ -42240,7 +42214,7 @@
         <v>102</v>
       </c>
       <c r="AZ168" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="BB168" s="1">
         <v>3</v>
@@ -42249,13 +42223,13 @@
         <v>24</v>
       </c>
       <c r="BD168" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BG168" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH168" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="BI168" s="1" t="s">
         <v>375</v>
@@ -42267,7 +42241,7 @@
         <v>106</v>
       </c>
       <c r="BU168" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="BV168" s="1" t="s">
         <v>121</v>
@@ -42288,13 +42262,13 @@
         <v>662</v>
       </c>
       <c r="CE168" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="CF168" s="1" t="s">
         <v>2215</v>
       </c>
-      <c r="CF168" s="1" t="s">
+      <c r="CH168" s="1" t="s">
         <v>2216</v>
-      </c>
-      <c r="CH168" s="1" t="s">
-        <v>2217</v>
       </c>
       <c r="CI168" s="1" t="s">
         <v>382</v>
@@ -42335,13 +42309,13 @@
         <v>97</v>
       </c>
       <c r="K169" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L169" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="L169" s="1" t="s">
+      <c r="N169" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>2220</v>
       </c>
       <c r="O169" s="1" t="s">
         <v>101</v>
@@ -42370,12 +42344,7 @@
       <c r="AA169" s="1">
         <v>0</v>
       </c>
-      <c r="AC169" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD169" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC169" s="3"/>
       <c r="AF169" s="1" t="s">
         <v>107</v>
       </c>
@@ -42425,7 +42394,7 @@
         <v>102</v>
       </c>
       <c r="AZ169" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="BB169" s="1">
         <v>3</v>
@@ -42434,13 +42403,13 @@
         <v>24</v>
       </c>
       <c r="BD169" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BG169" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH169" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BI169" s="1" t="s">
         <v>569</v>
@@ -42452,7 +42421,7 @@
         <v>106</v>
       </c>
       <c r="BU169" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BV169" s="1" t="s">
         <v>121</v>
@@ -42470,16 +42439,16 @@
         <v>102</v>
       </c>
       <c r="CD169" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="CE169" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="CF169" s="1" t="s">
         <v>2225</v>
       </c>
-      <c r="CE169" s="1" t="s">
-        <v>2225</v>
-      </c>
-      <c r="CF169" s="1" t="s">
+      <c r="CH169" s="1" t="s">
         <v>2226</v>
-      </c>
-      <c r="CH169" s="1" t="s">
-        <v>2227</v>
       </c>
       <c r="CI169" s="1" t="s">
         <v>576</v>
@@ -42520,13 +42489,13 @@
         <v>97</v>
       </c>
       <c r="K170" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="L170" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="L170" s="1" t="s">
+      <c r="N170" s="1" t="s">
         <v>2229</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>2230</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>101</v>
@@ -42564,12 +42533,7 @@
       <c r="AB170" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC170" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD170" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC170" s="3"/>
       <c r="AF170" s="1" t="s">
         <v>107</v>
       </c>
@@ -42616,7 +42580,7 @@
         <v>102</v>
       </c>
       <c r="AZ170" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BB170" s="1">
         <v>3</v>
@@ -42625,16 +42589,16 @@
         <v>24</v>
       </c>
       <c r="BD170" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BG170" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH170" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="BI170" s="1" t="s">
         <v>2233</v>
-      </c>
-      <c r="BI170" s="1" t="s">
-        <v>2234</v>
       </c>
       <c r="BN170" s="1" t="s">
         <v>117</v>
@@ -42646,13 +42610,13 @@
         <v>118</v>
       </c>
       <c r="BS170" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="BT170" s="3">
         <v>35243</v>
       </c>
       <c r="BU170" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BV170" s="1" t="s">
         <v>121</v>
@@ -42670,19 +42634,19 @@
         <v>102</v>
       </c>
       <c r="CD170" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="CE170" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="CE170" s="1" t="s">
+      <c r="CF170" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="CF170" s="1" t="s">
+      <c r="CH170" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="CH170" s="1" t="s">
+      <c r="CI170" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="CI170" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="CJ170" s="1" t="s">
         <v>129</v>
@@ -42720,13 +42684,13 @@
         <v>97</v>
       </c>
       <c r="K171" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="L171" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="L171" s="1" t="s">
+      <c r="N171" s="1" t="s">
         <v>2243</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>2244</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>101</v>
@@ -42755,12 +42719,7 @@
       <c r="AA171" s="1">
         <v>0</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -42810,7 +42769,7 @@
         <v>102</v>
       </c>
       <c r="AZ171" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BB171" s="1">
         <v>3</v>
@@ -42819,13 +42778,13 @@
         <v>24</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH171" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BI171" s="1" t="s">
         <v>1123</v>
@@ -42837,7 +42796,7 @@
         <v>106</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>121</v>
@@ -42855,16 +42814,16 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="CH171" s="1" t="s">
-        <v>2252</v>
       </c>
       <c r="CI171" s="1" t="s">
         <v>1129</v>
@@ -42905,13 +42864,13 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2254</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2255</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42940,12 +42899,7 @@
       <c r="AA172" s="1">
         <v>0</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -42995,7 +42949,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BB172" s="1">
         <v>3</v>
@@ -43004,13 +42958,13 @@
         <v>24</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>902</v>
@@ -43025,7 +42979,7 @@
         <v>163</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>121</v>
@@ -43043,16 +42997,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="CE172" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CF172" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="CF172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2263</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>908</v>
@@ -43093,13 +43047,13 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2266</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -43131,12 +43085,7 @@
       <c r="AA173" s="1">
         <v>0</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43186,7 +43135,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BB173" s="1">
         <v>3</v>
@@ -43195,13 +43144,13 @@
         <v>24</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>117</v>
@@ -43210,7 +43159,7 @@
         <v>106</v>
       </c>
       <c r="BU173" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BV173" s="1" t="s">
         <v>121</v>
@@ -43231,16 +43180,16 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="CE173" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CF173" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="CF173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2274</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -43281,13 +43230,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2276</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2277</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43316,12 +43265,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2180</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43368,7 +43312,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="BB174" s="1">
         <v>3</v>
@@ -43377,16 +43321,16 @@
         <v>24</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2280</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2281</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>117</v>
@@ -43398,13 +43342,13 @@
         <v>118</v>
       </c>
       <c r="BS174" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BT174" s="3">
         <v>35950</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>121</v>
@@ -43422,19 +43366,19 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="CE174" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CF174" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="CF174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="CH174" s="1" t="s">
+      <c r="CI174" s="1" t="s">
         <v>2287</v>
-      </c>
-      <c r="CI174" s="1" t="s">
-        <v>2288</v>
       </c>
       <c r="CJ174" s="1" t="s">
         <v>129</v>
@@ -43472,13 +43416,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2291</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43559,7 +43503,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BB175" s="1">
         <v>3</v>
@@ -43568,13 +43512,13 @@
         <v>24</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>117</v>
@@ -43586,7 +43530,7 @@
         <v>163</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>121</v>
@@ -43604,16 +43548,16 @@
         <v>102</v>
       </c>
       <c r="CD175" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="CE175" s="1" t="s">
         <v>417</v>
       </c>
       <c r="CF175" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="CH175" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2298</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>129</v>
@@ -43654,13 +43598,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43735,7 +43679,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BB176" s="1">
         <v>3</v>
@@ -43744,16 +43688,16 @@
         <v>24</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2305</v>
       </c>
       <c r="BN176" s="1" t="s">
         <v>117</v>
@@ -43765,13 +43709,13 @@
         <v>228</v>
       </c>
       <c r="BS176" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BT176" s="3">
         <v>36099</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>121</v>
@@ -43789,19 +43733,19 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CF176" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="CH176" s="1" t="s">
+      <c r="CI176" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="CI176" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="CJ176" s="1" t="s">
         <v>129</v>
@@ -43839,13 +43783,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2315</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43920,7 +43864,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BB177" s="1">
         <v>3</v>
@@ -43929,16 +43873,16 @@
         <v>24</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="BN177" s="1" t="s">
         <v>117</v>
@@ -43950,13 +43894,13 @@
         <v>103</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BT177" s="3">
         <v>37735</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>121</v>
@@ -43974,19 +43918,19 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="CH177" s="1" t="s">
+      <c r="CI177" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="CI177" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="CJ177" s="1" t="s">
         <v>129</v>
@@ -44024,13 +43968,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -44108,7 +44052,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BB178" s="1">
         <v>3</v>
@@ -44117,13 +44061,13 @@
         <v>24</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>1096</v>
@@ -44135,7 +44079,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>121</v>
@@ -44153,16 +44097,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="CE178" s="1" t="s">
         <v>842</v>
       </c>
       <c r="CF178" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="CH178" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>1102</v>
@@ -44203,13 +44147,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2337</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2338</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2339</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44245,10 +44189,10 @@
         <v>107</v>
       </c>
       <c r="AG179" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="AH179" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="AH179" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="AI179" s="1" t="s">
         <v>102</v>
@@ -44290,7 +44234,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BB179" s="1">
         <v>3</v>
@@ -44299,13 +44243,13 @@
         <v>24</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BN179" s="1" t="s">
         <v>117</v>
@@ -44314,7 +44258,7 @@
         <v>106</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>121</v>
@@ -44335,13 +44279,13 @@
         <v>1549</v>
       </c>
       <c r="CE179" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="CF179" s="1" t="s">
         <v>2346</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2347</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2348</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>129</v>
@@ -44382,13 +44326,13 @@
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2351</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44466,7 +44410,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BB180" s="1">
         <v>3</v>
@@ -44475,16 +44419,16 @@
         <v>24</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="BI180" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="BI180" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="BN180" s="1" t="s">
         <v>117</v>
@@ -44496,13 +44440,13 @@
         <v>103</v>
       </c>
       <c r="BS180" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BT180" s="3">
         <v>43602</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>121</v>
@@ -44526,13 +44470,13 @@
         <v>929</v>
       </c>
       <c r="CF180" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="CH180" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="CH180" s="1" t="s">
+      <c r="CI180" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="CI180" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="CJ180" s="1" t="s">
         <v>129</v>
@@ -44570,13 +44514,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44654,7 +44598,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BB181" s="1">
         <v>3</v>
@@ -44663,13 +44607,13 @@
         <v>24</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>915</v>
@@ -44681,7 +44625,7 @@
         <v>106</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>121</v>
@@ -44699,16 +44643,16 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="CE181" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CF181" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="CF181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2370</v>
-      </c>
-      <c r="CH181" s="1" t="s">
-        <v>2371</v>
       </c>
       <c r="CI181" s="1" t="s">
         <v>920</v>
@@ -44749,13 +44693,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44794,7 +44738,7 @@
         <v>42247</v>
       </c>
       <c r="AD182" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="AF182" s="1" t="s">
         <v>107</v>
@@ -44848,13 +44792,13 @@
         <v>24</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>1638</v>
@@ -44869,13 +44813,13 @@
         <v>228</v>
       </c>
       <c r="BS182" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BT182" s="3">
         <v>36580</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>121</v>
@@ -44896,7 +44840,7 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>295</v>
@@ -44905,7 +44849,7 @@
         <v>1581</v>
       </c>
       <c r="CH182" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>1646</v>
@@ -44946,13 +44890,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -45036,16 +44980,16 @@
         <v>24</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="BN183" s="1" t="s">
         <v>117</v>
@@ -45057,13 +45001,13 @@
         <v>118</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BT183" s="3">
         <v>37747</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>121</v>
@@ -45087,13 +45031,13 @@
         <v>647</v>
       </c>
       <c r="CF183" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="CH183" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="CH183" s="1" t="s">
+      <c r="CI183" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CI183" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="CJ183" s="1" t="s">
         <v>129</v>
@@ -45131,13 +45075,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45224,13 +45168,13 @@
         <v>24</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>117</v>
@@ -45239,7 +45183,7 @@
         <v>106</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>121</v>
@@ -45257,16 +45201,16 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="CF184" s="1" t="s">
-        <v>2400</v>
-      </c>
       <c r="CH184" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>129</v>
@@ -45307,13 +45251,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45400,13 +45344,13 @@
         <v>24</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>569</v>
@@ -45421,7 +45365,7 @@
         <v>163</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>121</v>
@@ -45439,16 +45383,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="CE185" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CF185" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="CF185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>576</v>
@@ -45489,13 +45433,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2412</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2413</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45576,16 +45520,16 @@
         <v>24</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>117</v>
@@ -45597,13 +45541,13 @@
         <v>103</v>
       </c>
       <c r="BS186" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BT186" s="3">
         <v>37334</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>121</v>
@@ -45624,16 +45568,16 @@
         <v>492</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="CH186" s="1" t="s">
+      <c r="CI186" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="CI186" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="CJ186" s="1" t="s">
         <v>129</v>
@@ -45650,7 +45594,7 @@
         <v>90</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>315</v>
@@ -45665,19 +45609,19 @@
         <v>95</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45761,16 +45705,16 @@
         <v>24</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>117</v>
@@ -45782,13 +45726,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BT187" s="3">
         <v>37904</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>121</v>
@@ -45797,7 +45741,7 @@
         <v>0</v>
       </c>
       <c r="CA187" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="CB187" s="1" t="s">
         <v>123</v>
@@ -45809,16 +45753,16 @@
         <v>929</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="CF187" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="CF187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>129</v>
@@ -45856,13 +45800,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45946,13 +45890,13 @@
         <v>24</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>1096</v>
@@ -45967,13 +45911,13 @@
         <v>118</v>
       </c>
       <c r="BS188" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BT188" s="3">
         <v>36111</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>121</v>
@@ -45991,16 +45935,16 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="CE188" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="CF188" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="CH188" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>1102</v>
@@ -46041,13 +45985,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -46128,16 +46072,16 @@
         <v>24</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>117</v>
@@ -46149,13 +46093,13 @@
         <v>118</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BT189" s="3">
         <v>37785</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>121</v>
@@ -46173,19 +46117,19 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CF189" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="CF189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="CH189" s="1" t="s">
+      <c r="CI189" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>129</v>
@@ -46202,7 +46146,7 @@
         <v>1396</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>315</v>
@@ -46217,16 +46161,16 @@
         <v>95</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46301,7 +46245,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BN190" s="1" t="s">
         <v>117</v>
@@ -46316,7 +46260,7 @@
         <v>0</v>
       </c>
       <c r="CA190" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="CB190" s="1" t="s">
         <v>123</v>
@@ -46325,7 +46269,7 @@
         <v>102</v>
       </c>
       <c r="CD190" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>129</v>
@@ -46369,13 +46313,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46453,7 +46397,7 @@
         <v>102</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BB191" s="1">
         <v>3</v>
@@ -46462,13 +46406,13 @@
         <v>24</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>117</v>
@@ -46477,7 +46421,7 @@
         <v>106</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>121</v>
@@ -46495,16 +46439,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>129</v>
@@ -46545,13 +46489,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46629,7 +46573,7 @@
         <v>102</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB192" s="1">
         <v>3</v>
@@ -46638,13 +46582,13 @@
         <v>24</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>375</v>
@@ -46656,7 +46600,7 @@
         <v>106</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>121</v>
@@ -46674,16 +46618,16 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="CE192" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="CF192" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="CH192" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>382</v>
@@ -46724,13 +46668,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46808,7 +46752,7 @@
         <v>102</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BB193" s="1">
         <v>3</v>
@@ -46817,7 +46761,7 @@
         <v>24</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
@@ -46832,7 +46776,7 @@
         <v>106</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>121</v>
@@ -46853,10 +46797,10 @@
         <v>1087</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="CF193" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1005</v>
@@ -46900,13 +46844,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -46984,7 +46928,7 @@
         <v>102</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BB194" s="1">
         <v>3</v>
@@ -46993,13 +46937,13 @@
         <v>24</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BI194" s="1" t="s">
         <v>1758</v>
@@ -47017,13 +46961,13 @@
         <v>163</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BT194" s="3">
         <v>37513</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>121</v>
@@ -47041,16 +46985,16 @@
         <v>102</v>
       </c>
       <c r="CD194" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="CE194" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF194" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="CH194" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>1762</v>
@@ -47091,13 +47035,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47181,16 +47125,16 @@
         <v>24</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>117</v>
@@ -47202,13 +47146,13 @@
         <v>228</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BT195" s="3">
         <v>41024</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>121</v>
@@ -47226,19 +47170,19 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CF195" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="CF195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CH195" s="1" t="s">
+      <c r="CI195" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="CI195" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="CJ195" s="1" t="s">
         <v>129</v>
@@ -47276,10 +47220,10 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47306,10 +47250,10 @@
         <v>107</v>
       </c>
       <c r="AG196" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="AH196" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="AH196" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="AJ196" s="1" t="s">
         <v>110</v>
@@ -47351,7 +47295,7 @@
         <v>102</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BB196" s="1">
         <v>2</v>
@@ -47360,7 +47304,7 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>117</v>
@@ -47387,7 +47331,7 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>1367</v>
@@ -47431,13 +47375,13 @@
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47512,7 +47456,7 @@
         <v>102</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BB197" s="1">
         <v>3</v>
@@ -47521,13 +47465,13 @@
         <v>24</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>902</v>
@@ -47542,13 +47486,13 @@
         <v>103</v>
       </c>
       <c r="BS197" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BT197" s="3">
         <v>37336</v>
       </c>
       <c r="BU197" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BV197" s="1" t="s">
         <v>121</v>
@@ -47566,16 +47510,16 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CF197" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="CF197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>908</v>
@@ -47616,13 +47560,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47700,7 +47644,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BB198" s="1">
         <v>3</v>
@@ -47709,16 +47653,16 @@
         <v>24</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2542</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>117</v>
@@ -47727,7 +47671,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>121</v>
@@ -47745,19 +47689,19 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="CH198" s="1" t="s">
+      <c r="CI198" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="CI198" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="CJ198" s="1" t="s">
         <v>129</v>
@@ -47795,13 +47739,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47888,13 +47832,13 @@
         <v>24</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BN199" s="1" t="s">
         <v>117</v>
@@ -47903,7 +47847,7 @@
         <v>106</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>121</v>
@@ -47921,16 +47865,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="CE199" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CF199" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CF199" s="1" t="s">
+      <c r="CH199" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>129</v>
@@ -47971,13 +47915,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -48015,12 +47959,7 @@
       <c r="AB200" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC200" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>107</v>
       </c>
@@ -48070,7 +48009,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="BB200" s="1">
         <v>3</v>
@@ -48079,16 +48018,16 @@
         <v>24</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="BI200" s="1" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>117</v>
@@ -48097,7 +48036,7 @@
         <v>106</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>121</v>
@@ -48121,16 +48060,16 @@
         <v>1139</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="CF200" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="CH200" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CI200" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2570</v>
-      </c>
-      <c r="CI200" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="CJ200" s="1" t="s">
         <v>129</v>
@@ -48168,10 +48107,10 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>111</v>
@@ -48195,7 +48134,7 @@
         <v>107</v>
       </c>
       <c r="AG201" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="AH201" s="1" t="s">
         <v>371</v>
@@ -48249,10 +48188,10 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="CF201" s="1" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="202" spans="1:88" x14ac:dyDescent="0.25">
@@ -48287,10 +48226,10 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>111</v>
@@ -48368,10 +48307,10 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="CF202" s="1" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="203" spans="1:88" x14ac:dyDescent="0.25">
@@ -48406,13 +48345,13 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="N203" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2581</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48441,12 +48380,7 @@
       <c r="AA203" s="1">
         <v>0</v>
       </c>
-      <c r="AC203" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC203" s="3"/>
       <c r="AF203" s="1" t="s">
         <v>107</v>
       </c>
@@ -48499,13 +48433,13 @@
         <v>24</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>1096</v>
@@ -48520,13 +48454,13 @@
         <v>103</v>
       </c>
       <c r="BS203" s="1" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="BT203" s="3">
         <v>36306</v>
       </c>
       <c r="BU203" s="1" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="BV203" s="1" t="s">
         <v>121</v>
@@ -48544,16 +48478,16 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="CE203" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="CF203" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="CF203" s="1" t="s">
-        <v>2589</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>1102</v>
@@ -48594,13 +48528,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="N204" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2592</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2593</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48629,12 +48563,7 @@
       <c r="AA204" s="1">
         <v>0</v>
       </c>
-      <c r="AC204" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC204" s="3"/>
       <c r="AF204" s="1" t="s">
         <v>107</v>
       </c>
@@ -48690,13 +48619,13 @@
         <v>24</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="BN204" s="1" t="s">
         <v>117</v>
@@ -48705,7 +48634,7 @@
         <v>106</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>121</v>
@@ -48723,16 +48652,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="CE204" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF204" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="CH204" s="1" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>129</v>
@@ -48773,13 +48702,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="N205" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="L205" s="1" t="s">
-        <v>2601</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -48811,12 +48740,7 @@
       <c r="AB205" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC205" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>107</v>
       </c>
@@ -48869,16 +48793,16 @@
         <v>24</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="BI205" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>117</v>
@@ -48890,13 +48814,13 @@
         <v>103</v>
       </c>
       <c r="BS205" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="BT205" s="3">
         <v>38234</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>121</v>
@@ -48914,19 +48838,19 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="CE205" s="1" t="s">
         <v>980</v>
       </c>
       <c r="CF205" s="1" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="CH205" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="CI205" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>129</v>
@@ -48964,13 +48888,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="N206" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>2612</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -48999,12 +48923,7 @@
       <c r="AA206" s="1">
         <v>0</v>
       </c>
-      <c r="AC206" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD206" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC206" s="3"/>
       <c r="AF206" s="1" t="s">
         <v>107</v>
       </c>
@@ -49060,13 +48979,13 @@
         <v>24</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>117</v>
@@ -49075,7 +48994,7 @@
         <v>106</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>121</v>
@@ -49093,16 +49012,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="CE206" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="CF206" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="CF206" s="1" t="s">
-        <v>2619</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>129</v>
@@ -49143,13 +49062,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="N207" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>2622</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49178,12 +49097,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>107</v>
       </c>
@@ -49236,16 +49150,16 @@
         <v>24</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>117</v>
@@ -49257,13 +49171,13 @@
         <v>228</v>
       </c>
       <c r="BS207" s="1" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="BT207" s="3">
         <v>37069</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>121</v>
@@ -49284,16 +49198,16 @@
         <v>729</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2630</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2631</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2632</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>129</v>
@@ -49331,13 +49245,13 @@
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="N208" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>2634</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>101</v>
@@ -49366,12 +49280,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -49427,13 +49336,13 @@
         <v>24</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="BN208" s="1" t="s">
         <v>117</v>
@@ -49442,7 +49351,7 @@
         <v>106</v>
       </c>
       <c r="BU208" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="BV208" s="1" t="s">
         <v>121</v>
@@ -49460,16 +49369,16 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="CF208" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="CF208" s="1" t="s">
-        <v>2641</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2642</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>129</v>
@@ -49510,13 +49419,13 @@
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="N209" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="L209" s="1" t="s">
-        <v>2644</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>101</v>
@@ -49545,12 +49454,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2646</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>107</v>
       </c>
@@ -49597,7 +49501,7 @@
         <v>102</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="BB209" s="1">
         <v>3</v>
@@ -49606,16 +49510,16 @@
         <v>24</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="BG209" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="BI209" s="1" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="BN209" s="1" t="s">
         <v>117</v>
@@ -49627,13 +49531,13 @@
         <v>228</v>
       </c>
       <c r="BS209" s="1" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="BT209" s="3">
         <v>35125</v>
       </c>
       <c r="BU209" s="1" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="BV209" s="1" t="s">
         <v>121</v>
@@ -49651,19 +49555,19 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="CE209" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="CH209" s="1" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="CI209" s="1" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="CJ209" s="1" t="s">
         <v>129</v>
@@ -49701,13 +49605,13 @@
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>101</v>
@@ -49743,7 +49647,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>2045</v>
@@ -49797,19 +49701,19 @@
         <v>24</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="BG210" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="BN210" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU210" s="1" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="BV210" s="1" t="s">
         <v>121</v>
@@ -49827,16 +49731,16 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="CE210" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="CF210" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CH210" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2665</v>
-      </c>
-      <c r="CF210" s="1" t="s">
-        <v>2666</v>
-      </c>
-      <c r="CH210" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="CI210" s="1" t="s">
         <v>129</v>
@@ -49877,13 +49781,13 @@
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>101</v>
@@ -49919,7 +49823,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>157</v>
@@ -49970,13 +49874,13 @@
         <v>24</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="BG211" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="BN211" s="1" t="s">
         <v>117</v>
@@ -49985,7 +49889,7 @@
         <v>106</v>
       </c>
       <c r="BU211" s="1" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="BV211" s="1" t="s">
         <v>121</v>
@@ -50006,13 +49910,13 @@
         <v>334</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="CH211" s="1" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="CI211" s="1" t="s">
         <v>129</v>
@@ -50053,13 +49957,13 @@
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>101</v>
@@ -50143,16 +50047,16 @@
         <v>24</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="BG212" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="BI212" s="1" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="BN212" s="1" t="s">
         <v>117</v>
@@ -50164,13 +50068,13 @@
         <v>228</v>
       </c>
       <c r="BS212" s="1" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="BT212" s="3">
         <v>34307</v>
       </c>
       <c r="BU212" s="1" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="BV212" s="1" t="s">
         <v>121</v>
@@ -50188,19 +50092,19 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="CE212" s="1" t="s">
         <v>417</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="CH212" s="1" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="CI212" s="1" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="CJ212" s="1" t="s">
         <v>129</v>
@@ -50238,13 +50142,13 @@
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>101</v>
@@ -50331,13 +50235,13 @@
         <v>24</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="BG213" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="BN213" s="1" t="s">
         <v>117</v>
@@ -50346,7 +50250,7 @@
         <v>106</v>
       </c>
       <c r="BU213" s="1" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="BV213" s="1" t="s">
         <v>121</v>
@@ -50376,10 +50280,10 @@
         <v>1199</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="CH213" s="1" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>129</v>
@@ -50420,13 +50324,13 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>101</v>
@@ -50510,13 +50414,13 @@
         <v>24</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="BG214" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>915</v>
@@ -50534,13 +50438,13 @@
         <v>163</v>
       </c>
       <c r="BS214" s="1" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="BT214" s="3">
         <v>5347</v>
       </c>
       <c r="BU214" s="1" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="BV214" s="1" t="s">
         <v>121</v>
@@ -50564,16 +50468,16 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="CE214" s="1" t="s">
         <v>448</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="CH214" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="CI214" s="1" t="s">
         <v>920</v>
@@ -50614,10 +50518,10 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50644,10 +50548,10 @@
         <v>107</v>
       </c>
       <c r="AG215" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="AH215" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AJ215" s="1" t="s">
         <v>110</v>
@@ -50695,7 +50599,7 @@
         <v>21</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="BN215" s="1" t="s">
         <v>117</v>
@@ -50725,7 +50629,7 @@
         <v>93</v>
       </c>
       <c r="CD215" s="1" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>129</v>
@@ -50769,10 +50673,10 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50799,10 +50703,10 @@
         <v>107</v>
       </c>
       <c r="AG216" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="AH216" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AJ216" s="1" t="s">
         <v>110</v>
@@ -50850,7 +50754,7 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>117</v>
@@ -50868,7 +50772,7 @@
         <v>111</v>
       </c>
       <c r="CA216" s="1" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="CB216" s="1" t="s">
         <v>123</v>
@@ -50877,7 +50781,7 @@
         <v>93</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>129</v>
@@ -50921,13 +50825,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -51017,19 +50921,19 @@
         <v>24</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="BN217" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>121</v>
@@ -51050,16 +50954,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="CE217" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="CF217" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="CH217" s="1" t="s">
         <v>2723</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="CF217" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>129</v>
@@ -51082,7 +50986,7 @@
         <v>91</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>102</v>
@@ -51094,19 +50998,19 @@
         <v>95</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -51190,13 +51094,13 @@
         <v>24</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>1096</v>
@@ -51211,13 +51115,13 @@
         <v>118</v>
       </c>
       <c r="BS218" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="BT218" s="3">
         <v>35278</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>121</v>
@@ -51238,16 +51142,16 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CF218" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="CH218" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2738</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>1102</v>
@@ -51288,13 +51192,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -51384,19 +51288,19 @@
         <v>24</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>121</v>
@@ -51417,16 +51321,16 @@
         <v>102</v>
       </c>
       <c r="CD219" s="1" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="CE219" s="1" t="s">
         <v>449</v>
       </c>
       <c r="CF219" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="CH219" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>129</v>
@@ -51467,10 +51371,10 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51497,10 +51401,10 @@
         <v>107</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="AH220" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AJ220" s="1" t="s">
         <v>110</v>
@@ -51545,7 +51449,7 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>117</v>
@@ -51572,7 +51476,7 @@
         <v>93</v>
       </c>
       <c r="CD220" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>129</v>
@@ -51616,10 +51520,10 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51694,7 +51598,7 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>117</v>
@@ -51721,7 +51625,7 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>1367</v>
@@ -51765,13 +51669,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51858,13 +51762,13 @@
         <v>24</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="BN222" s="1" t="s">
         <v>117</v>
@@ -51873,7 +51777,7 @@
         <v>106</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>121</v>
@@ -51894,16 +51798,16 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="CF222" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="CH222" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="CF222" s="1" t="s">
-        <v>2764</v>
-      </c>
-      <c r="CH222" s="1" t="s">
-        <v>2765</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>129</v>
@@ -51944,13 +51848,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -51986,7 +51890,7 @@
         <v>107</v>
       </c>
       <c r="AG223" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="AH223" s="1" t="s">
         <v>157</v>
@@ -52037,22 +51941,22 @@
         <v>24</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>121</v>
@@ -52073,19 +51977,19 @@
         <v>102</v>
       </c>
       <c r="CD223" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="CF223" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="CH223" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CI223" s="1" t="s">
         <v>2775</v>
-      </c>
-      <c r="CF223" s="1" t="s">
-        <v>2776</v>
-      </c>
-      <c r="CH223" s="1" t="s">
-        <v>2777</v>
-      </c>
-      <c r="CI223" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="CJ223" s="1" t="s">
         <v>129</v>
@@ -52123,13 +52027,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -52213,16 +52117,16 @@
         <v>24</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>117</v>
@@ -52234,13 +52138,13 @@
         <v>103</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="BT224" s="3">
         <v>424</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>121</v>
@@ -52261,19 +52165,19 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>1901</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="CI224" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="CJ224" s="1" t="s">
         <v>129</v>
@@ -52311,13 +52215,13 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -52401,16 +52305,16 @@
         <v>24</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BI225" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>117</v>
@@ -52422,13 +52326,13 @@
         <v>103</v>
       </c>
       <c r="BS225" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="BT225" s="3">
         <v>34412</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>121</v>
@@ -52449,19 +52353,19 @@
         <v>102</v>
       </c>
       <c r="CD225" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CE225" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="CF225" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="CH225" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="CE225" s="1" t="s">
+      <c r="CI225" s="1" t="s">
         <v>2800</v>
-      </c>
-      <c r="CF225" s="1" t="s">
-        <v>2801</v>
-      </c>
-      <c r="CH225" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="CI225" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="CJ225" s="1" t="s">
         <v>129</v>
@@ -52580,7 +52484,7 @@
         <v>23</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>117</v>
@@ -52633,7 +52537,7 @@
         <v>91</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>93</v>
@@ -52645,22 +52549,22 @@
         <v>95</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="N227" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2808</v>
-      </c>
-      <c r="M227" s="1" t="s">
-        <v>2809</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2810</v>
       </c>
       <c r="Q227" s="3">
         <v>17060</v>
@@ -52693,13 +52597,13 @@
         <v>42628</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>138</v>
@@ -52744,22 +52648,22 @@
         <v>102</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="BB227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD227" s="1" t="s">
-        <v>2814</v>
-      </c>
-      <c r="BH227" s="1" t="s">
-        <v>2815</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>117</v>
@@ -52768,7 +52672,7 @@
         <v>106</v>
       </c>
       <c r="BU227" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="BV227" s="1" t="s">
         <v>121</v>
@@ -52792,13 +52696,13 @@
         <v>125</v>
       </c>
       <c r="CF227" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="CI227" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="CJ227" s="1" t="s">
         <v>129</v>
@@ -52812,13 +52716,13 @@
         <v>89</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>102</v>
@@ -52830,22 +52734,22 @@
         <v>95</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="Q228" s="3">
         <v>26864</v>
@@ -52875,7 +52779,7 @@
         <v>42735</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -52929,10 +52833,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>117</v>
@@ -52944,13 +52848,13 @@
         <v>228</v>
       </c>
       <c r="BS228" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="BT228" s="3">
         <v>102</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>121</v>
@@ -52962,7 +52866,7 @@
         <v>111</v>
       </c>
       <c r="CA228" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="CB228" s="1" t="s">
         <v>123</v>
@@ -52971,16 +52875,16 @@
         <v>102</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>129</v>
@@ -53000,7 +52904,7 @@
         <v>314</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>315</v>
@@ -53021,16 +52925,16 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="Q229" s="3">
         <v>25379</v>
@@ -53060,7 +52964,7 @@
         <v>39800</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>240</v>
@@ -53114,10 +53018,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>117</v>
@@ -53129,13 +53033,13 @@
         <v>1752</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="BT229" s="3">
         <v>35915</v>
       </c>
       <c r="BU229" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BV229" s="1" t="s">
         <v>121</v>
@@ -53165,10 +53069,10 @@
         <v>624</v>
       </c>
       <c r="CF229" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>129</v>
@@ -53191,7 +53095,7 @@
         <v>130</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>102</v>
@@ -53203,22 +53107,22 @@
         <v>95</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="Q230" s="3">
         <v>17470</v>
@@ -53248,7 +53152,7 @@
         <v>43100</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>107</v>
@@ -53305,10 +53209,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>117</v>
@@ -53317,7 +53221,7 @@
         <v>106</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>121</v>
@@ -53341,16 +53245,16 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>129</v>
@@ -53373,7 +53277,7 @@
         <v>1397</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>93</v>
@@ -53385,22 +53289,22 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="Q231" s="3">
         <v>17726</v>
@@ -53433,7 +53337,7 @@
         <v>43312</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>240</v>
@@ -53484,7 +53388,7 @@
         <v>102</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="BB231" s="1">
         <v>0</v>
@@ -53493,10 +53397,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>117</v>
@@ -53505,7 +53409,7 @@
         <v>106</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>121</v>
@@ -53514,7 +53418,7 @@
         <v>0</v>
       </c>
       <c r="CA231" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="CB231" s="1" t="s">
         <v>123</v>
@@ -53523,16 +53427,16 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CF231" s="1" t="s">
         <v>868</v>
       </c>
       <c r="CH231" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="CI231" s="1" t="s">
         <v>129</v>
@@ -53555,7 +53459,7 @@
         <v>1397</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>93</v>
@@ -53567,22 +53471,22 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="Q232" s="3">
         <v>17041</v>
@@ -53609,13 +53513,13 @@
         <v>42735</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>2045</v>
@@ -53666,7 +53570,7 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>117</v>
@@ -53675,7 +53579,7 @@
         <v>106</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>121</v>
@@ -53687,7 +53591,7 @@
         <v>111</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>123</v>
@@ -53696,13 +53600,13 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53728,7 +53632,7 @@
         <v>1397</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>102</v>
@@ -53740,22 +53644,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="Q233" s="3">
         <v>30147</v>
@@ -53778,17 +53682,12 @@
       <c r="AA233" s="1">
         <v>0</v>
       </c>
-      <c r="AC233" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD233" s="1" t="s">
-        <v>2562</v>
-      </c>
+      <c r="AC233" s="3"/>
       <c r="AF233" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>371</v>
@@ -53836,10 +53735,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>117</v>
@@ -53851,13 +53750,13 @@
         <v>103</v>
       </c>
       <c r="BS233" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="BT233" s="3">
         <v>37124</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>121</v>
@@ -53866,7 +53765,7 @@
         <v>0</v>
       </c>
       <c r="CA233" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="CB233" s="1" t="s">
         <v>123</v>
@@ -53875,16 +53774,16 @@
         <v>102</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="CF233" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>129</v>
@@ -53925,16 +53824,16 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="Q234" s="3">
         <v>17821</v>
@@ -53970,7 +53869,7 @@
         <v>43388</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>107</v>
@@ -54021,25 +53920,25 @@
         <v>102</v>
       </c>
       <c r="AZ234" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="BB234" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC234" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD234" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="BE234" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="BF234" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="BB234" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC234" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD234" s="1" t="s">
+      <c r="BH234" s="1" t="s">
         <v>2898</v>
-      </c>
-      <c r="BE234" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="BF234" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="BH234" s="1" t="s">
-        <v>2901</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>117</v>
@@ -54048,7 +53947,7 @@
         <v>106</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>121</v>
@@ -54066,16 +53965,16 @@
         <v>102</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="CF234" s="1" t="s">
         <v>479</v>
       </c>
       <c r="CH234" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>129</v>
@@ -54095,7 +53994,7 @@
         <v>314</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>315</v>
@@ -54116,16 +54015,16 @@
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54158,7 +54057,7 @@
         <v>43980</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
@@ -54212,10 +54111,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>117</v>
@@ -54227,13 +54126,13 @@
         <v>1752</v>
       </c>
       <c r="BS235" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="BT235" s="3">
         <v>35915</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>121</v>
@@ -54257,7 +54156,7 @@
         <v>624</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>1367</v>
@@ -54295,22 +54194,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>101</v>
@@ -54343,7 +54242,7 @@
         <v>44135</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -54400,10 +54299,10 @@
         <v>20</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>117</v>
@@ -54412,7 +54311,7 @@
         <v>106</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>121</v>
@@ -54421,7 +54320,7 @@
         <v>0</v>
       </c>
       <c r="CA236" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="CB236" s="1" t="s">
         <v>123</v>
@@ -54433,10 +54332,10 @@
         <v>1235</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>1367</v>
@@ -54462,7 +54361,7 @@
         <v>91</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>102</v>
@@ -54474,22 +54373,22 @@
         <v>95</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>101</v>
@@ -54522,16 +54421,16 @@
         <v>43847</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG237" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="AH237" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="AH237" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="AJ237" s="1" t="s">
         <v>110</v>
@@ -54573,7 +54472,7 @@
         <v>102</v>
       </c>
       <c r="AZ237" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BB237" s="1">
         <v>2</v>
@@ -54582,10 +54481,10 @@
         <v>21</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>117</v>
@@ -54597,13 +54496,13 @@
         <v>118</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="BT237" s="3">
         <v>34808</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>121</v>
@@ -54621,13 +54520,13 @@
         <v>102</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>1367</v>
@@ -54644,10 +54543,10 @@
         <v>88</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1207</v>
@@ -54671,16 +54570,16 @@
         <v>315</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>101</v>
@@ -54734,7 +54633,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54764,7 +54663,7 @@
         <v>102</v>
       </c>
       <c r="AZ238" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BB238" s="1">
         <v>2</v>
@@ -54773,13 +54672,13 @@
         <v>21</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>121</v>
@@ -54797,13 +54696,13 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CF238" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>129</v>
@@ -54829,7 +54728,7 @@
         <v>1397</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>102</v>
@@ -54841,22 +54740,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>101</v>
@@ -54892,7 +54791,7 @@
         <v>44246</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
@@ -54949,10 +54848,10 @@
         <v>21</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>117</v>
@@ -54961,7 +54860,7 @@
         <v>106</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>121</v>
@@ -54976,7 +54875,7 @@
         <v>111</v>
       </c>
       <c r="CA239" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="CB239" s="1" t="s">
         <v>123</v>
@@ -54985,13 +54884,13 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="CE239" s="1" t="s">
         <v>145</v>
       </c>
       <c r="CF239" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>129</v>
@@ -55017,7 +54916,7 @@
         <v>91</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>93</v>
@@ -55029,22 +54928,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>101</v>
@@ -55080,7 +54979,7 @@
         <v>44267</v>
       </c>
       <c r="AD240" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="AF240" s="1" t="s">
         <v>107</v>
@@ -55137,10 +55036,10 @@
         <v>21</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>117</v>
@@ -55152,13 +55051,13 @@
         <v>118</v>
       </c>
       <c r="BS240" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BT240" s="3">
         <v>35711</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>121</v>
@@ -55182,10 +55081,10 @@
         <v>379</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>129</v>
@@ -55226,16 +55125,16 @@
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>101</v>
@@ -55268,16 +55167,16 @@
         <v>44255</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG241" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="AH241" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AJ241" s="1" t="s">
         <v>110</v>
@@ -55325,16 +55224,16 @@
         <v>21</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BE241" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="BF241" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>117</v>
@@ -55343,13 +55242,13 @@
         <v>228</v>
       </c>
       <c r="BS241" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BT241" s="3">
         <v>2302</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>121</v>
@@ -55373,16 +55272,16 @@
         <v>93</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="CE241" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="CF241" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="CH241" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="CF241" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="CH241" s="1" t="s">
-        <v>2976</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>129</v>
@@ -55423,16 +55322,16 @@
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -55465,7 +55364,7 @@
         <v>44316</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
@@ -55522,10 +55421,10 @@
         <v>21</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>117</v>
@@ -55537,13 +55436,13 @@
         <v>228</v>
       </c>
       <c r="BS242" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BT242" s="3">
         <v>35108</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>121</v>
@@ -55561,16 +55460,16 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>1841</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>129</v>
@@ -55611,16 +55510,16 @@
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55653,16 +55552,16 @@
         <v>44507</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="AH243" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AI243" s="1" t="s">
         <v>102</v>
@@ -55713,16 +55612,16 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>121</v>
@@ -55737,7 +55636,7 @@
         <v>111</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>123</v>
@@ -55746,16 +55645,16 @@
         <v>93</v>
       </c>
       <c r="CD243" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>129</v>
@@ -55796,16 +55695,16 @@
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55838,7 +55737,7 @@
         <v>44701</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
@@ -55886,7 +55785,7 @@
         <v>102</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BB244" s="1">
         <v>5</v>
@@ -55895,13 +55794,13 @@
         <v>22</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>117</v>
@@ -55916,13 +55815,13 @@
         <v>163</v>
       </c>
       <c r="BS244" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BT244" s="3">
         <v>36825</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>121</v>
@@ -55937,7 +55836,7 @@
         <v>111</v>
       </c>
       <c r="CA244" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="CB244" s="1" t="s">
         <v>123</v>
@@ -55946,19 +55845,19 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="CF244" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CH244" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="CI244" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CJ244" s="1" t="s">
         <v>129</v>
@@ -55990,22 +55889,22 @@
         <v>95</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -56038,7 +55937,7 @@
         <v>44561</v>
       </c>
       <c r="AD245" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="AF245" s="1" t="s">
         <v>107</v>
@@ -56095,10 +55994,10 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>117</v>
@@ -56107,13 +56006,13 @@
         <v>228</v>
       </c>
       <c r="BS245" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BT245" s="3">
         <v>5480</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>121</v>
@@ -56137,16 +56036,16 @@
         <v>102</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="CH245" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>129</v>
@@ -56166,7 +56065,7 @@
         <v>90</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>315</v>
@@ -56181,22 +56080,22 @@
         <v>95</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56232,7 +56131,7 @@
         <v>44788</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -56292,10 +56191,10 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>117</v>
@@ -56310,13 +56209,13 @@
         <v>163</v>
       </c>
       <c r="BS246" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BT246" s="3">
         <v>35259</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>121</v>
@@ -56334,13 +56233,13 @@
         <v>102</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>129</v>
@@ -56384,16 +56283,16 @@
         <v>97</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56426,16 +56325,16 @@
         <v>44833</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="AH247" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AI247" s="1" t="s">
         <v>102</v>
@@ -56486,16 +56385,16 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>121</v>
@@ -56507,7 +56406,7 @@
         <v>111</v>
       </c>
       <c r="CA247" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CB247" s="1" t="s">
         <v>123</v>
@@ -56516,16 +56415,16 @@
         <v>93</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CH247" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>129</v>
@@ -56566,16 +56465,16 @@
         <v>97</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56608,16 +56507,16 @@
         <v>44895</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="AH248" s="1" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="AJ248" s="1" t="s">
         <v>110</v>
@@ -56662,10 +56561,10 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>117</v>
@@ -56674,13 +56573,13 @@
         <v>118</v>
       </c>
       <c r="BS248" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BT248" s="3">
         <v>34170</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>121</v>
@@ -56701,16 +56600,16 @@
         <v>93</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CF248" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CH248" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>129</v>
@@ -56751,16 +56650,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56793,7 +56692,7 @@
         <v>45007</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56847,10 +56746,10 @@
         <v>23</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>117</v>
@@ -56859,13 +56758,13 @@
         <v>103</v>
       </c>
       <c r="BS249" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="BT249" s="3">
         <v>300</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>121</v>
@@ -56886,13 +56785,13 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>1367</v>
@@ -56936,16 +56835,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56984,7 +56883,7 @@
         <v>45124</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
@@ -57044,10 +56943,10 @@
         <v>23</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>117</v>
@@ -57056,7 +56955,7 @@
         <v>106</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>121</v>
@@ -57077,13 +56976,13 @@
         <v>102</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>1367</v>
@@ -57127,13 +57026,13 @@
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="L251" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -57217,16 +57116,16 @@
         <v>24</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BI251" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>117</v>
@@ -57241,13 +57140,13 @@
         <v>163</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BT251" s="3">
         <v>36284</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>121</v>
@@ -57271,19 +57170,19 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="CF251" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="CH251" s="1" t="s">
         <v>3066</v>
       </c>
-      <c r="CE251" s="1" t="s">
+      <c r="CI251" s="1" t="s">
         <v>3067</v>
-      </c>
-      <c r="CF251" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="CH251" s="1" t="s">
-        <v>3069</v>
-      </c>
-      <c r="CI251" s="1" t="s">
-        <v>3070</v>
       </c>
       <c r="CJ251" s="1" t="s">
         <v>129</v>
@@ -57321,16 +57220,16 @@
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="L252" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -57363,7 +57262,7 @@
         <v>45239</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
@@ -57423,10 +57322,10 @@
         <v>23</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>117</v>
@@ -57435,7 +57334,7 @@
         <v>106</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>121</v>
@@ -57459,13 +57358,13 @@
         <v>417</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>129</v>
@@ -57503,16 +57402,16 @@
         <v>1254</v>
       </c>
       <c r="J253" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="N253" s="1" t="s">
         <v>3079</v>
-      </c>
-      <c r="K253" s="1" t="s">
-        <v>3080</v>
-      </c>
-      <c r="L253" s="1" t="s">
-        <v>3081</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>3082</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57548,7 +57447,7 @@
         <v>1257</v>
       </c>
       <c r="AH253" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="AI253" s="1" t="s">
         <v>102</v>
@@ -57596,13 +57495,13 @@
         <v>24</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>117</v>
@@ -57611,7 +57510,7 @@
         <v>106</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>121</v>
@@ -57632,16 +57531,16 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>129</v>
@@ -57682,13 +57581,13 @@
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57772,16 +57671,16 @@
         <v>24</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BI254" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>117</v>
@@ -57793,13 +57692,13 @@
         <v>228</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BT254" s="3">
         <v>1026</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>121</v>
@@ -57820,19 +57719,19 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="CH254" s="1" t="s">
         <v>3098</v>
       </c>
-      <c r="CE254" s="1" t="s">
-        <v>3099</v>
-      </c>
-      <c r="CF254" s="1" t="s">
-        <v>3100</v>
-      </c>
-      <c r="CH254" s="1" t="s">
-        <v>3101</v>
-      </c>
       <c r="CI254" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="CJ254" s="1" t="s">
         <v>129</v>
@@ -57870,13 +57769,13 @@
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57960,13 +57859,13 @@
         <v>24</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>117</v>
@@ -57975,7 +57874,7 @@
         <v>106</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>121</v>
@@ -57999,13 +57898,13 @@
         <v>842</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CH255" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>129</v>
@@ -58046,13 +57945,13 @@
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -58136,13 +58035,13 @@
         <v>24</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BI256" s="1" t="s">
         <v>915</v>
@@ -58157,13 +58056,13 @@
         <v>118</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BT256" s="3">
         <v>2114</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>121</v>
@@ -58184,16 +58083,16 @@
         <v>102</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="CH256" s="1" t="s">
         <v>3118</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3119</v>
-      </c>
-      <c r="CF256" s="1" t="s">
-        <v>3120</v>
-      </c>
-      <c r="CH256" s="1" t="s">
-        <v>3121</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>920</v>
@@ -58234,13 +58133,13 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -58324,13 +58223,13 @@
         <v>24</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>117</v>
@@ -58339,7 +58238,7 @@
         <v>106</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>121</v>
@@ -58360,16 +58259,16 @@
         <v>102</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>129</v>
@@ -58410,13 +58309,13 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58500,16 +58399,16 @@
         <v>24</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BI258" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>117</v>
@@ -58521,13 +58420,13 @@
         <v>103</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BT258" s="3">
         <v>2400</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>121</v>
@@ -58548,19 +58447,19 @@
         <v>102</v>
       </c>
       <c r="CD258" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="CF258" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="CH258" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="CI258" s="1" t="s">
         <v>3138</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3139</v>
-      </c>
-      <c r="CF258" s="1" t="s">
-        <v>3140</v>
-      </c>
-      <c r="CH258" s="1" t="s">
-        <v>2707</v>
-      </c>
-      <c r="CI258" s="1" t="s">
-        <v>3141</v>
       </c>
       <c r="CJ258" s="1" t="s">
         <v>129</v>
@@ -58595,16 +58494,16 @@
         <v>1254</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58691,13 +58590,13 @@
         <v>24</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BI259" s="1" t="s">
         <v>915</v>
@@ -58709,7 +58608,7 @@
         <v>106</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>121</v>
@@ -58730,16 +58629,16 @@
         <v>102</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CE259" s="1" t="s">
         <v>880</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>920</v>
@@ -58780,13 +58679,13 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58870,13 +58769,13 @@
         <v>24</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>117</v>
@@ -58888,13 +58787,13 @@
         <v>118</v>
       </c>
       <c r="BS260" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BT260" s="3">
         <v>7809</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>121</v>
@@ -58918,13 +58817,13 @@
         <v>249</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="CF260" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>129</v>
@@ -58965,13 +58864,13 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -59055,13 +58954,13 @@
         <v>24</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>117</v>
@@ -59070,7 +58969,7 @@
         <v>106</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>121</v>
@@ -59091,16 +58990,16 @@
         <v>102</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CE261" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>129</v>
@@ -59141,13 +59040,13 @@
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -59231,13 +59130,13 @@
         <v>24</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BI262" s="1" t="s">
         <v>569</v>
@@ -59249,7 +59148,7 @@
         <v>106</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>121</v>
@@ -59270,16 +59169,16 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CE262" s="1" t="s">
         <v>1481</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CH262" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>576</v>
@@ -59320,13 +59219,13 @@
         <v>97</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -59410,16 +59309,16 @@
         <v>24</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BI263" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>117</v>
@@ -59428,7 +59327,7 @@
         <v>106</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>121</v>
@@ -59449,19 +59348,19 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CE263" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CH263" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CI263" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="CJ263" s="1" t="s">
         <v>129</v>
@@ -59499,13 +59398,13 @@
         <v>97</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59589,13 +59488,13 @@
         <v>24</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>117</v>
@@ -59604,7 +59503,7 @@
         <v>106</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>121</v>
@@ -59628,13 +59527,13 @@
         <v>1441</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>129</v>
@@ -59675,13 +59574,13 @@
         <v>97</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59765,13 +59664,13 @@
         <v>24</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>117</v>
@@ -59780,7 +59679,7 @@
         <v>106</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>121</v>
@@ -59801,16 +59700,16 @@
         <v>102</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CE265" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>129</v>
@@ -59851,16 +59750,16 @@
         <v>97</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="L266" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59893,7 +59792,7 @@
         <v>45291</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>107</v>
@@ -59953,10 +59852,10 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>117</v>
@@ -59965,7 +59864,7 @@
         <v>106</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>121</v>
@@ -59989,13 +59888,13 @@
         <v>102</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>662</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>1625</v>
@@ -60039,16 +59938,16 @@
         <v>97</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="L267" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -60081,7 +59980,7 @@
         <v>45311</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>107</v>
@@ -60138,10 +60037,10 @@
         <v>24</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>117</v>
@@ -60150,7 +60049,7 @@
         <v>106</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>121</v>
@@ -60171,13 +60070,13 @@
         <v>102</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>129</v>
@@ -60221,13 +60120,13 @@
         <v>97</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -60311,13 +60210,13 @@
         <v>24</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>117</v>
@@ -60326,7 +60225,7 @@
         <v>106</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>121</v>
@@ -60353,10 +60252,10 @@
         <v>905</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CH268" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>129</v>
@@ -60397,13 +60296,13 @@
         <v>97</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60490,19 +60389,19 @@
         <v>24</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>121</v>
@@ -60526,13 +60425,13 @@
         <v>1973</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CH269" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="CI269" s="1" t="s">
         <v>129</v>
@@ -60573,13 +60472,13 @@
         <v>97</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60615,10 +60514,10 @@
         <v>107</v>
       </c>
       <c r="AG270" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="AH270" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="AH270" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="AJ270" s="1" t="s">
         <v>110</v>
@@ -60663,13 +60562,13 @@
         <v>24</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>117</v>
@@ -60681,13 +60580,13 @@
         <v>118</v>
       </c>
       <c r="BS270" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BT270" s="3">
         <v>45315</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>121</v>
@@ -60708,16 +60607,16 @@
         <v>102</v>
       </c>
       <c r="CD270" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CE270" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF270" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="CH270" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>129</v>
@@ -60731,10 +60630,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1207</v>
@@ -60749,7 +60648,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1207</v>
@@ -60758,10 +60657,10 @@
         <v>315</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60803,7 +60702,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60836,7 +60735,7 @@
         <v>23</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>117</v>
@@ -60857,7 +60756,7 @@
         <v>102</v>
       </c>
       <c r="CD271" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>129</v>
@@ -60874,10 +60773,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1207</v>
@@ -60892,7 +60791,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1207</v>
@@ -60901,13 +60800,13 @@
         <v>315</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60958,7 +60857,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60994,19 +60893,19 @@
         <v>24</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>121</v>
@@ -61033,10 +60932,10 @@
         <v>1040</v>
       </c>
       <c r="CF272" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CH272" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>129</v>
@@ -61050,10 +60949,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1207</v>
@@ -61068,7 +60967,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1207</v>
@@ -61077,13 +60976,13 @@
         <v>315</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -61134,7 +61033,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -61170,19 +61069,19 @@
         <v>24</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU273" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BV273" s="1" t="s">
         <v>121</v>
@@ -61203,16 +61102,16 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="CE273" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="CF273" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="CH273" s="1" t="s">
         <v>3269</v>
-      </c>
-      <c r="CE273" s="1" t="s">
-        <v>3270</v>
-      </c>
-      <c r="CF273" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="CH273" s="1" t="s">
-        <v>3272</v>
       </c>
       <c r="CI273" s="1" t="s">
         <v>129</v>
@@ -61226,10 +61125,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1207</v>
@@ -61244,7 +61143,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1207</v>
@@ -61253,13 +61152,13 @@
         <v>315</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -61346,19 +61245,19 @@
         <v>24</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="BG274" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU274" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BV274" s="1" t="s">
         <v>121</v>
@@ -61379,7 +61278,7 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="CE274" s="1" t="s">
         <v>573</v>
@@ -61388,7 +61287,7 @@
         <v>479</v>
       </c>
       <c r="CH274" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="CI274" s="1" t="s">
         <v>129</v>
@@ -61402,10 +61301,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1207</v>
@@ -61420,7 +61319,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1207</v>
@@ -61429,13 +61328,13 @@
         <v>315</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -61489,7 +61388,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -61525,19 +61424,19 @@
         <v>24</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="BN275" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU275" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BV275" s="1" t="s">
         <v>121</v>
@@ -61561,13 +61460,13 @@
         <v>462</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="CF275" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="CH275" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="CI275" s="1" t="s">
         <v>129</v>
@@ -61581,10 +61480,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1207</v>
@@ -61599,7 +61498,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1207</v>
@@ -61608,13 +61507,13 @@
         <v>315</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61701,19 +61600,19 @@
         <v>24</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BG276" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU276" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BV276" s="1" t="s">
         <v>121</v>
@@ -61734,16 +61633,16 @@
         <v>102</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="CE276" s="1" t="s">
         <v>584</v>
       </c>
       <c r="CF276" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="CH276" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="CI276" s="1" t="s">
         <v>129</v>
@@ -61757,10 +61656,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1207</v>
@@ -61775,7 +61674,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1207</v>
@@ -61784,13 +61683,13 @@
         <v>315</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61844,7 +61743,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61880,19 +61779,19 @@
         <v>24</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>121</v>
@@ -61913,16 +61812,16 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="CE277" s="1" t="s">
         <v>968</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>129</v>
@@ -61936,10 +61835,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1207</v>
@@ -61954,7 +61853,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1207</v>
@@ -61963,13 +61862,13 @@
         <v>315</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -62023,7 +61922,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -62059,19 +61958,19 @@
         <v>24</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>121</v>
@@ -62095,13 +61994,13 @@
         <v>954</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="CH278" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>129</v>
@@ -62115,10 +62014,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1207</v>
@@ -62133,7 +62032,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1207</v>
@@ -62142,13 +62041,13 @@
         <v>315</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
@@ -62199,7 +62098,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -62232,19 +62131,19 @@
         <v>24</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>121</v>
@@ -62262,16 +62161,16 @@
         <v>102</v>
       </c>
       <c r="CD279" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="CF279" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="CH279" s="1" t="s">
         <v>3326</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3327</v>
-      </c>
-      <c r="CF279" s="1" t="s">
-        <v>3328</v>
-      </c>
-      <c r="CH279" s="1" t="s">
-        <v>3329</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>129</v>
@@ -62285,10 +62184,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1207</v>
@@ -62303,7 +62202,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1207</v>
@@ -62312,13 +62211,13 @@
         <v>315</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
@@ -62402,19 +62301,19 @@
         <v>24</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>121</v>
@@ -62435,16 +62334,16 @@
         <v>2067</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3336</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3337</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3338</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3339</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>129</v>
@@ -62458,10 +62357,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1207</v>
@@ -62476,7 +62375,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1207</v>
@@ -62485,13 +62384,13 @@
         <v>315</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
@@ -62545,7 +62444,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -62581,19 +62480,19 @@
         <v>24</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>121</v>
@@ -62614,16 +62513,16 @@
         <v>102</v>
       </c>
       <c r="CD281" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="CE281" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="CF281" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="CH281" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>129</v>
@@ -62637,10 +62536,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1207</v>
@@ -62655,7 +62554,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1207</v>
@@ -62664,13 +62563,13 @@
         <v>315</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
@@ -62763,7 +62662,7 @@
         <v>24</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>114</v>
@@ -62790,10 +62689,10 @@
         <v>102</v>
       </c>
       <c r="CD282" s="1" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="CE282" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="CF282" s="1" t="s">
         <v>215</v>
@@ -62813,10 +62712,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1207</v>
@@ -62831,7 +62730,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1207</v>
@@ -62840,13 +62739,13 @@
         <v>315</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62897,7 +62796,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62933,19 +62832,19 @@
         <v>24</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="BG283" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU283" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BV283" s="1" t="s">
         <v>121</v>
@@ -62966,16 +62865,16 @@
         <v>102</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="CE283" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="CF283" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="CH283" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="CI283" s="1" t="s">
         <v>129</v>
@@ -62989,10 +62888,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1207</v>
@@ -63007,7 +62906,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1207</v>
@@ -63016,13 +62915,13 @@
         <v>315</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -63052,7 +62951,7 @@
         <v>107</v>
       </c>
       <c r="AG284" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="AH284" s="1" t="s">
         <v>371</v>
@@ -63067,7 +62966,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -63097,19 +62996,19 @@
         <v>24</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="BG284" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU284" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="BV284" s="1" t="s">
         <v>121</v>
@@ -63127,16 +63026,16 @@
         <v>102</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="CE284" s="1" t="s">
         <v>309</v>
       </c>
       <c r="CF284" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="CH284" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="CI284" s="1" t="s">
         <v>129</v>
@@ -63150,10 +63049,10 @@
         <v>88</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1207</v>
@@ -63168,7 +63067,7 @@
         <v>94</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1207</v>
@@ -63177,13 +63076,13 @@
         <v>315</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -63267,19 +63166,19 @@
         <v>24</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BG285" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU285" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="BV285" s="1" t="s">
         <v>121</v>
@@ -63297,16 +63196,16 @@
         <v>102</v>
       </c>
       <c r="CD285" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="CE285" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="CF285" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="CH285" s="1" t="s">
         <v>3381</v>
-      </c>
-      <c r="CE285" s="1" t="s">
-        <v>3382</v>
-      </c>
-      <c r="CF285" s="1" t="s">
-        <v>3383</v>
-      </c>
-      <c r="CH285" s="1" t="s">
-        <v>3384</v>
       </c>
       <c r="CI285" s="1" t="s">
         <v>129</v>
@@ -63320,10 +63219,10 @@
         <v>88</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1207</v>
@@ -63338,7 +63237,7 @@
         <v>94</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1207</v>
@@ -63347,13 +63246,13 @@
         <v>315</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>101</v>
@@ -63440,19 +63339,19 @@
         <v>24</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BG286" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="BN286" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU286" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="BV286" s="1" t="s">
         <v>121</v>
@@ -63470,16 +63369,16 @@
         <v>102</v>
       </c>
       <c r="CD286" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="CE286" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="CF286" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="CH286" s="1" t="s">
         <v>3391</v>
-      </c>
-      <c r="CE286" s="1" t="s">
-        <v>3392</v>
-      </c>
-      <c r="CF286" s="1" t="s">
-        <v>3393</v>
-      </c>
-      <c r="CH286" s="1" t="s">
-        <v>3394</v>
       </c>
       <c r="CI286" s="1" t="s">
         <v>129</v>
@@ -63493,10 +63392,10 @@
         <v>88</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1207</v>
@@ -63511,7 +63410,7 @@
         <v>94</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1207</v>
@@ -63520,10 +63419,10 @@
         <v>315</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>101</v>
@@ -63562,7 +63461,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="AO287" s="1">
         <v>0</v>
@@ -63595,7 +63494,7 @@
         <v>23</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="BN287" s="1" t="s">
         <v>117</v>
@@ -63616,7 +63515,7 @@
         <v>102</v>
       </c>
       <c r="CD287" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="CH287" s="1" t="s">
         <v>129</v>
@@ -63633,10 +63532,10 @@
         <v>88</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1207</v>
@@ -63651,7 +63550,7 @@
         <v>94</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1207</v>
@@ -63660,13 +63559,13 @@
         <v>315</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>101</v>
@@ -63720,7 +63619,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="AO288" s="1">
         <v>0</v>
@@ -63756,19 +63655,19 @@
         <v>24</v>
       </c>
       <c r="BD288" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="BG288" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="BN288" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU288" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="BV288" s="1" t="s">
         <v>121</v>
@@ -63795,10 +63694,10 @@
         <v>1441</v>
       </c>
       <c r="CF288" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="CH288" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="CI288" s="1" t="s">
         <v>129</v>
@@ -63812,10 +63711,10 @@
         <v>88</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1207</v>
@@ -63830,7 +63729,7 @@
         <v>94</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1207</v>
@@ -63839,13 +63738,13 @@
         <v>315</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>101</v>
@@ -63896,7 +63795,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="AO289" s="1">
         <v>0</v>
@@ -63929,19 +63828,19 @@
         <v>24</v>
       </c>
       <c r="BD289" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="BG289" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="BN289" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BU289" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="BV289" s="1" t="s">
         <v>121</v>
@@ -63962,16 +63861,16 @@
         <v>102</v>
       </c>
       <c r="CD289" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="CE289" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="CF289" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="CH289" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="CI289" s="1" t="s">
         <v>129</v>
@@ -63981,6 +63880,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ289" xr:uid="{41FC5E79-3F4D-480C-9786-23F198ED7E9A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>